--- a/biology/Zoologie/Émeraude_à_queue_courte/Émeraude_à_queue_courte.xlsx
+++ b/biology/Zoologie/Émeraude_à_queue_courte/Émeraude_à_queue_courte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_%C3%A0_queue_courte</t>
+          <t>Émeraude_à_queue_courte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostilbon poortmani
 L'Émeraude à queue courte (Chlorostilbon poortmani) est une espèce de colibris (la famille des Trochilidae) présents au nord de l'Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meraude_%C3%A0_queue_courte</t>
+          <t>Émeraude_à_queue_courte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce d'environ 7,5 cm de longueur, de couleur vert doré et à bec étroit. Le mâle a sur le ventre des plumes vert émeraude iridescentes. La femelle a le ventre et la gorge gris clair.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meraude_%C3%A0_queue_courte</t>
+          <t>Émeraude_à_queue_courte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce goûte une grande variété de fleurs et complète son alimentation par des arthropodes qu'elle attrape au vol.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meraude_%C3%A0_queue_courte</t>
+          <t>Émeraude_à_queue_courte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Distribution et habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts tropicales et subtropicales humides de plaine et de montagne mais aussi les anciennes forêts fortement dégradées. Son aire de répartition inclut la Colombie et le Venezuela.
-L'espèce est placée sur la liste rouge de l'UICN des espèces de préoccupation mineure[1].
+L'espèce est placée sur la liste rouge de l'UICN des espèces de préoccupation mineure.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meraude_%C3%A0_queue_courte</t>
+          <t>Émeraude_à_queue_courte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Chlorostilbon poortmani poortmani (Bourcier) 1843, L'Émeraude à queue courte ;
